--- a/InputData/fuels/ETRbF/Export Tax Rate by Fuel.xlsx
+++ b/InputData/fuels/ETRbF/Export Tax Rate by Fuel.xlsx
@@ -1,39 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\fuels\ETRbF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_F24942694DE7304F9575D2AFA0F189C82DE6F3C5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90E1B862-7C49-4615-AB8E-46CD9192E059}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="ETRbF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+  <si>
+    <t>ETRbF Export Tax Rate by Fuel</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>Patrick Watson</t>
-  </si>
-  <si>
-    <t>The U.S. Has Never Had a Tax on Exports</t>
+    <t>CRA</t>
+  </si>
+  <si>
+    <t>Application of the Excise Tax to Fuel Sold in Canada for Immediate Export</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/revenue-agency/services/forms-publications/publications/etsl79/application-excise-tax-fuel-sold-canada-immediate-export.html</t>
+  </si>
+  <si>
+    <t>GST/HST on imports and exports</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/revenue-agency/services/tax/businesses/topics/gst-hst-businesses/charge-collect-imports-exports.html#exports</t>
   </si>
   <si>
     <t>Notes</t>
@@ -42,7 +65,7 @@
     <t>According to Encyclopedia Britannica:</t>
   </si>
   <si>
-    <t>https://www.forbes.com/sites/patrickwwatson/2017/02/13/the-us-has-never-had-a-tax-on-exports/</t>
+    <t>https://www.britannica.com/topic/tariff#ref592273</t>
   </si>
   <si>
     <t>Export duties are no longer used to a great extent, except to tax certain mineral, petroleum, and agricultural</t>
@@ -54,10 +77,10 @@
     <t>were common in the past, however, and were significant elements of mercantilist trade policies.</t>
   </si>
   <si>
-    <t>https://www.britannica.com/topic/tariff#ref592273</t>
-  </si>
-  <si>
-    <t>ETRbF Export Tax Rate by Fuel</t>
+    <t>Export Tax Rate (dimensionless)</t>
+  </si>
+  <si>
+    <t>electricity (energy carrier)</t>
   </si>
   <si>
     <t>hard coal</t>
@@ -69,6 +92,15 @@
     <t>nuclear</t>
   </si>
   <si>
+    <t>hydro (is not a fuel)</t>
+  </si>
+  <si>
+    <t>wind (is not a fuel)</t>
+  </si>
+  <si>
+    <t>solar (is not a fuel)</t>
+  </si>
+  <si>
     <t>biomass</t>
   </si>
   <si>
@@ -87,27 +119,15 @@
     <t>jet fuel</t>
   </si>
   <si>
+    <t>heat (energy carrier)</t>
+  </si>
+  <si>
+    <t>geothermal (is not a fuel)</t>
+  </si>
+  <si>
     <t>lignite</t>
   </si>
   <si>
-    <t>geothermal (is not a fuel)</t>
-  </si>
-  <si>
-    <t>solar (is not a fuel)</t>
-  </si>
-  <si>
-    <t>wind (is not a fuel)</t>
-  </si>
-  <si>
-    <t>hydro (is not a fuel)</t>
-  </si>
-  <si>
-    <t>electricity (energy carrier)</t>
-  </si>
-  <si>
-    <t>heat (energy carrier)</t>
-  </si>
-  <si>
     <t>crude oil</t>
   </si>
   <si>
@@ -121,16 +141,13 @@
   </si>
   <si>
     <t>hydrogen</t>
-  </si>
-  <si>
-    <t>Export Tax Rate (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -192,7 +209,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -474,86 +490,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="91.3984375" customWidth="1"/>
+    <col min="2" max="2" width="91.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="B9" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15"/>
+    <row r="13" spans="1:2" ht="15"/>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15"/>
+    <row r="23" spans="1:1" ht="15"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="A11" r:id="rId2" location="ref592273" display="https://www.britannica.com/topic/tariff - ref592273"/>
+    <hyperlink ref="A16" r:id="rId1" location="ref592273" display="https://www.britannica.com/topic/tariff - ref592273" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{B8759303-27A1-4312-BBA9-6B585802D11A}"/>
+    <hyperlink ref="B11" r:id="rId3" location="exports" xr:uid="{7B8F04AA-9775-496B-B338-B3ABE3EF6559}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -563,181 +609,181 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
       <c r="B20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -746,4 +792,295 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <SharedWithUsers xmlns="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <UserInfo>
+        <DisplayName>Jared Connoy</DisplayName>
+        <AccountId>57</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B85B7A32-725A-4F94-BF61-B239798E85C2}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78FE1D6B-33B7-4539-A1B5-3779F9800541}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD974421-5F3C-4591-8D98-391680527AA4}"/>
 </file>
--- a/InputData/fuels/ETRbF/Export Tax Rate by Fuel.xlsx
+++ b/InputData/fuels/ETRbF/Export Tax Rate by Fuel.xlsx
@@ -814,13 +814,16 @@
         <AccountType/>
       </UserInfo>
     </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -844,6 +847,9 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -932,6 +938,23 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1078,7 +1101,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78FE1D6B-33B7-4539-A1B5-3779F9800541}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CB2B9D0-E383-42C6-92AB-93EB669FA429}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
